--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,6 +293,16 @@
   </si>
   <si>
     <t>Date de rencontre de la personne prise en charge avec le médecin de santé au travail en visite de pré-reprise.</t>
+  </si>
+  <si>
+    <t>ArretTravail.VieProfessionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/VieProfessionnelle
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe VieProfessionnelle</t>
   </si>
 </sst>
 </file>
@@ -597,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -616,7 +626,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1453,6 +1463,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ArretTravail.xlsx
+++ b/ML/ig/StructureDefinition-ArretTravail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
